--- a/biology/Médecine/James_Carroll_(médecin)/James_Carroll_(médecin).xlsx
+++ b/biology/Médecine/James_Carroll_(médecin)/James_Carroll_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James_Carroll_(m%C3%A9decin)</t>
+          <t>James_Carroll_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Carroll est un médecin américain, né le 5 juin 1854 en Angleterre et mort le 16 septembre 1907 à Washington.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James_Carroll_(m%C3%A9decin)</t>
+          <t>James_Carroll_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de James Carroll et d'Harriet née Chiverton. Il obtient son titre de docteur en 1891 avant de suivre une spécialisation à l’hôpital Johns-Hopkins. Il se marie, en mars 1888, avec Jennie M. George Lucas.
 Carroll collabore, de 1897 à 1902, avec Walter Reed qui tente de démontrer l’hypothèse de Giuseppe Sanarelli (1864-1940) sur le bacille de la fièvre jaune. 
